--- a/SetList/xlsx/juice.xlsx
+++ b/SetList/xlsx/juice.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DBF891-1EB6-5444-9B4B-4F0F1E8078D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="21 CONCERT TOUR ~terzo~" sheetId="1" r:id="rId4"/>
-    <sheet name="20 ～NEW SENSATION～" sheetId="2" r:id="rId5"/>
+    <sheet name="22 稲場愛香卒業コンサート" sheetId="3" r:id="rId1"/>
+    <sheet name="21 CONCERT TOUR ~terzo~" sheetId="1" r:id="rId2"/>
+    <sheet name="20 ～NEW SENSATION～" sheetId="2" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
   <si>
     <t>項番</t>
   </si>
@@ -138,25 +148,310 @@
   </si>
   <si>
     <t>未来へ、さあ走り出せ！</t>
+  </si>
+  <si>
+    <t>POPPIN' LOVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ひとりで生きられそう」ってそれってねえ、褒めているの？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STAGE〜アガってみな〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノクチルカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Future Smile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G.O.A.T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁断少女</t>
+    <rPh sb="0" eb="2">
+      <t>キンダn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="1">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロマンスの途中</t>
+    <rPh sb="0" eb="2">
+      <t>ロマンスノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンスパフォーマンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップミュージック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めてを経験中</t>
+    <rPh sb="0" eb="1">
+      <t>ハジメ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メドレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲場愛香　有澤一華　入江里咲　江端妃咲</t>
+    <rPh sb="0" eb="4">
+      <t>イナバ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>アリサワ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>イリエ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>エバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きって言ってよ</t>
+    <rPh sb="0" eb="1">
+      <t>スキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲場愛香　工藤由愛　松永里愛</t>
+    <rPh sb="0" eb="1">
+      <t>イナバ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>クドウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>マツナガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微炭酸</t>
+    <rPh sb="0" eb="3">
+      <t>ビタンサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲場愛香　井上玲音</t>
+    <rPh sb="0" eb="4">
+      <t>イナバ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イノウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>続いていくSTORY</t>
+    <rPh sb="0" eb="1">
+      <t>ツヅイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植村あかり　稲場愛香　段原瑠々　→ 全員</t>
+    <rPh sb="0" eb="2">
+      <t>ウエムラアカル</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>イナバ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ダンバラル</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨の中の口笛</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤由愛　松永里愛　有澤一華　入江里咲　江端妃咲</t>
+    <rPh sb="0" eb="4">
+      <t>クドウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>マツナガ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>アリサワイティ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>イリエ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>エバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mon Amour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植村あかり　稲場愛香　段原瑠々　井上玲音</t>
+    <rPh sb="0" eb="1">
+      <t>ウエムラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イナバ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダンバラ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イノウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiesta！Fiesta！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GIRLS BE AMBITIOUS！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私が言う前に抱きしめなきゃね</t>
+    <rPh sb="0" eb="1">
+      <t>ワタセィ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">イウ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダキシメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Goal！〜明日はあっちだよ〜</t>
+    <rPh sb="6" eb="8">
+      <t>アシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Magic of Love</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Familia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしも・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲場愛香</t>
+    <rPh sb="0" eb="4">
+      <t>イナバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンクロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>如雨露</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジョウロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="6"/>
+      <name val="Noto Sans JP Black"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,100 +491,118 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -491,7 +804,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -510,7 +823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -540,7 +853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -566,7 +879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -592,7 +905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -618,7 +931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -644,7 +957,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -670,7 +983,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -696,7 +1009,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -722,7 +1035,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -748,7 +1061,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,9 +1074,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -780,7 +1099,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -799,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +1196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +1222,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +1248,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +1274,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1326,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1352,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,9 +1365,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1062,7 +1387,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1081,7 +1406,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1462,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1488,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,7 +1618,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,320 +1657,437 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACE5A78-CDBD-9A41-925E-52020D48348A}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="2">
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="2">
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="2">
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="2">
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="2">
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="2">
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="2">
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="2">
+      <c r="B18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="2">
+      <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="2">
+      <c r="B20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="2">
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="2">
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="2">
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="2">
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="2">
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>
@@ -1653,369 +2095,643 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="7" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="7" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="2">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="2">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>

--- a/SetList/xlsx/juice.xlsx
+++ b/SetList/xlsx/juice.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DBF891-1EB6-5444-9B4B-4F0F1E8078D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D375B61-1D03-0A44-95C4-1888458A21BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="22 稲場愛香卒業コンサート" sheetId="3" r:id="rId1"/>
-    <sheet name="21 CONCERT TOUR ~terzo~" sheetId="1" r:id="rId2"/>
-    <sheet name="20 ～NEW SENSATION～" sheetId="2" r:id="rId3"/>
+    <sheet name="21 ～nouvelle vague～" sheetId="4" r:id="rId1"/>
+    <sheet name="22 稲場愛香卒業コンサート" sheetId="3" r:id="rId2"/>
+    <sheet name="21 CONCERT TOUR ~terzo~" sheetId="1" r:id="rId3"/>
+    <sheet name="20 ～NEW SENSATION～" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="93">
   <si>
     <t>項番</t>
   </si>
@@ -426,6 +427,95 @@
     <t>如雨露</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">ジョウロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラダだけが大人になったんじゃない</t>
+    <rPh sb="6" eb="8">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOKYOグライダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きって言ってよ</t>
+    <rPh sb="0" eb="1">
+      <t>スキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イッテヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イジワルしないで抱きしめてよ</t>
+    <rPh sb="8" eb="9">
+      <t>ダキシメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G.O.A.T.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポツリと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニモニマニモ〜恋のライバル宣言〜</t>
+    <rPh sb="8" eb="9">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生まれたてのBaby Love</t>
+    <rPh sb="0" eb="1">
+      <t>ウマレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Never Never Surrender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Borderline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KEEP ON 上昇志向！！</t>
+    <rPh sb="8" eb="12">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この世界は捨てたもんじゃない</t>
+    <rPh sb="5" eb="6">
+      <t>ステタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wonderful World</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未来へ、さあ走り出せ！</t>
+    <rPh sb="0" eb="2">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハシリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1675,10 +1765,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DD6AA8-57FC-2A4D-9A64-FEB9AB3622F6}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACE5A78-CDBD-9A41-925E-52020D48348A}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2094,7 +2464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2388,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
